--- a/Tracking2/FINAL/NEEMSIS_tracking_2022_v10_trans.xlsx
+++ b/Tracking2/FINAL/NEEMSIS_tracking_2022_v10_trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\Documents\GitHub\odriis\Tracking2\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957E8D21-C853-460F-912B-19818DD72B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9D6AD6-9D2A-4821-B79B-935AB234B2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="598" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8880" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -24017,9 +24017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1410"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A847" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A857" sqref="A857"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.796875" defaultRowHeight="18.600000000000001" customHeight="1"/>
@@ -46276,8 +46276,8 @@
   <dimension ref="A1:P1585"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A784" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B792" sqref="B792"/>
+      <pane ySplit="1" topLeftCell="A1158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1172" sqref="A1172:C1174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15.6"/>
@@ -71730,7 +71730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
